--- a/movement_data.xlsx
+++ b/movement_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xaibl\Google Drive\School\Grad\MSU\ECE 813 - Advanced VLSI Design\Project\pi-localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xaibl\Google Drive\School\Grad\MSU\.ECE 813 - Advanced VLSI Design\Project\pi-localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1368AB53-E888-499F-85B4-9B58D26F8A8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A3FE82-D5D7-4014-85D2-A50A96E46A16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{847D46BE-0844-4BDB-B1CD-8ED7F7976574}"/>
   </bookViews>
@@ -49,16 +49,16 @@
     <t>MAC ADDR</t>
   </si>
   <si>
-    <t>Meas Dist (ft)</t>
-  </si>
-  <si>
-    <t>Actual Dist (ft)</t>
-  </si>
-  <si>
     <t>Percent Error</t>
   </si>
   <si>
     <t>Position Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual </t>
+  </si>
+  <si>
+    <t>Measured</t>
   </si>
 </sst>
 </file>
@@ -544,6 +544,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bluetooth</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Distance: Measured vs. Actual</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -582,6 +612,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'departing 4.4 ft s-1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Measured</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -745,6 +786,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'departing 4.4 ft s-1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -925,6 +977,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -966,12 +1073,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="304744824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -989,6 +1098,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ft)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1032,6 +1201,51 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14722222222222223"/>
+          <c:y val="0.49585799902040456"/>
+          <c:w val="0.18634733158355207"/>
+          <c:h val="0.15725918737606009"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1573,10 +1787,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'departing 4.4 ft s-1'!$F$2:$F$54</c:f>
+              <c:f>'departing 4.4 ft s-1'!$F$2:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>-1.4564100630500001</c:v>
                 </c:pt>
@@ -1727,6 +1941,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1791,6 +2060,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4955,8 +5279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3B8C06-B8F1-4BBF-A3E3-0138189E391E}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="J12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4973,16 +5297,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4999,9 +5323,8 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="e">
-        <f>(C2-B2)/C2*100</f>
-        <v>#DIV/0!</v>
+      <c r="E2" s="5">
+        <v>0</v>
       </c>
       <c r="F2" s="5">
         <f>(C2-B2)</f>
